--- a/data/trans_camb/P45C_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 17,48</t>
+          <t>-4,95; 17,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,84; -5,78</t>
+          <t>-21,35; -4,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 5,81</t>
+          <t>-14,05; 6,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 12,75</t>
+          <t>-4,81; 12,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 1,56</t>
+          <t>-12,2; 0,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 4,27</t>
+          <t>-9,27; 4,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 12,64</t>
+          <t>-1,42; 12,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,4; -4,18</t>
+          <t>-14,59; -4,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 3,07</t>
+          <t>-9,08; 2,81</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 143,12</t>
+          <t>-23,13; 149,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-93,32; -36,59</t>
+          <t>-92,21; -30,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-62,76; 58,92</t>
+          <t>-61,58; 67,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,28; 174,21</t>
+          <t>-35,74; 172,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,22; 28,32</t>
+          <t>-83,72; 22,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,98; 70,21</t>
+          <t>-63,34; 77,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 112,31</t>
+          <t>-9,78; 115,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-82,08; -31,98</t>
+          <t>-83,82; -34,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,13; 29,71</t>
+          <t>-52,31; 28,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 4,4</t>
+          <t>-3,98; 4,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,23; -3,16</t>
+          <t>-11,27; -3,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 12,52</t>
+          <t>2,91; 13,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 7,99</t>
+          <t>0,53; 8,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 2,54</t>
+          <t>-4,72; 1,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 13,75</t>
+          <t>6,53; 13,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 5,23</t>
+          <t>-0,62; 5,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; -1,51</t>
+          <t>-6,84; -1,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 11,73</t>
+          <t>5,41; 11,8</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 30,82</t>
+          <t>-21,3; 30,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,42; -22,38</t>
+          <t>-60,53; -22,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,4; 86,77</t>
+          <t>15,08; 91,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 101,3</t>
+          <t>4,49; 108,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 31,95</t>
+          <t>-42,25; 24,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,76; 182,14</t>
+          <t>58,16; 180,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 46,61</t>
+          <t>-5,01; 43,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,12; -13,53</t>
+          <t>-49,31; -14,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,93; 104,24</t>
+          <t>38,82; 101,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,42</t>
+          <t>-3,99; 2,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; -0,12</t>
+          <t>-7,0; -0,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 1,61</t>
+          <t>-6,09; 1,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 4,11</t>
+          <t>-2,0; 4,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,08</t>
+          <t>-2,0; 3,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,41</t>
+          <t>0,81; 6,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,6</t>
+          <t>-2,21; 2,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 0,82</t>
+          <t>-3,82; 0,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,03</t>
+          <t>-1,76; 3,06</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 15,92</t>
+          <t>-21,83; 17,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,6; -0,68</t>
+          <t>-37,35; -2,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,75; 10,47</t>
+          <t>-32,83; 9,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 41,83</t>
+          <t>-15,22; 39,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 30,37</t>
+          <t>-15,74; 34,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,81; 61,94</t>
+          <t>6,1; 62,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 20,38</t>
+          <t>-14,22; 19,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 6,39</t>
+          <t>-24,91; 5,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 23,44</t>
+          <t>-11,39; 23,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,4</t>
+          <t>-0,4; 7,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 4,83</t>
+          <t>-2,54; 5,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 8,81</t>
+          <t>-0,11; 9,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 3,57</t>
+          <t>-4,16; 3,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 7,25</t>
+          <t>-0,32; 7,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 1,01</t>
+          <t>-7,51; 0,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,58</t>
+          <t>-1,1; 4,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 5,1</t>
+          <t>-0,5; 5,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 3,49</t>
+          <t>-2,88; 3,65</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 57,05</t>
+          <t>-2,49; 59,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 38,74</t>
+          <t>-15,21; 41,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 68,01</t>
+          <t>-0,68; 68,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 28,68</t>
+          <t>-25,09; 26,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 56,45</t>
+          <t>-2,16; 56,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,56; 7,59</t>
+          <t>-48,65; 5,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 34,97</t>
+          <t>-7,09; 32,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 39,79</t>
+          <t>-3,11; 37,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 26,72</t>
+          <t>-18,48; 26,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,49; 7,31</t>
+          <t>0,4; 7,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 4,34</t>
+          <t>-1,73; 4,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 2,93</t>
+          <t>-3,73; 2,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 2,72</t>
+          <t>-3,34; 2,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,8</t>
+          <t>-1,18; 4,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,79; -1,09</t>
+          <t>-6,54; -0,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,78</t>
+          <t>-0,45; 4,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,77</t>
+          <t>-0,92; 3,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -0,18</t>
+          <t>-4,34; -0,3</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,93; 54,25</t>
+          <t>2,26; 51,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 32,28</t>
+          <t>-10,69; 33,46</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 20,97</t>
+          <t>-22,74; 21,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 23,15</t>
+          <t>-22,71; 21,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 39,01</t>
+          <t>-8,15; 37,83</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-44,3; -8,57</t>
+          <t>-42,82; -7,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 28,19</t>
+          <t>-2,87; 31,45</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 28,0</t>
+          <t>-5,77; 29,9</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-29,34; -1,04</t>
+          <t>-28,17; -2,37</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,74</t>
+          <t>0,15; 3,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,03; -0,62</t>
+          <t>-4,15; -0,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,27</t>
+          <t>-0,67; 3,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,58</t>
+          <t>-0,52; 2,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,72</t>
+          <t>-0,46; 2,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,28</t>
+          <t>-1,21; 2,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,72</t>
+          <t>0,23; 2,71</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,72</t>
+          <t>-1,7; 0,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 2,21</t>
+          <t>-0,59; 2,18</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,29; 24,54</t>
+          <t>0,77; 24,25</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-24,29; -4,33</t>
+          <t>-25,06; -4,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 22,16</t>
+          <t>-4,5; 21,37</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 21,67</t>
+          <t>-3,97; 23,41</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 23,0</t>
+          <t>-3,51; 23,34</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 19,9</t>
+          <t>-9,18; 19,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,81; 20,37</t>
+          <t>1,36; 20,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 5,41</t>
+          <t>-11,75; 4,86</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 16,13</t>
+          <t>-3,98; 16,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 17,68</t>
+          <t>-2,91; 18,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,35; -4,93</t>
+          <t>-22,01; -5,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 6,86</t>
+          <t>-13,37; 6,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 12,82</t>
+          <t>-3,83; 14,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 0,99</t>
+          <t>-11,95; 0,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 4,9</t>
+          <t>-9,74; 4,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 12,6</t>
+          <t>-0,82; 13,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,59; -4,2</t>
+          <t>-15,21; -4,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 2,81</t>
+          <t>-9,59; 2,61</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 149,8</t>
+          <t>-15,08; 162,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-92,21; -30,06</t>
+          <t>-92,99; -35,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 67,64</t>
+          <t>-60,73; 69,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 172,54</t>
+          <t>-31,55; 198,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-83,72; 22,72</t>
+          <t>-81,75; 13,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,34; 77,81</t>
+          <t>-62,69; 71,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 115,22</t>
+          <t>-7,08; 124,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-83,82; -34,33</t>
+          <t>-82,5; -30,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 28,88</t>
+          <t>-54,02; 30,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 4,19</t>
+          <t>-3,83; 5,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,27; -3,48</t>
+          <t>-11,23; -3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 13,35</t>
+          <t>2,4; 12,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 8,27</t>
+          <t>0,49; 7,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,9</t>
+          <t>-4,45; 1,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 13,83</t>
+          <t>6,7; 13,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,08</t>
+          <t>-0,42; 5,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,84; -1,63</t>
+          <t>-6,53; -1,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 11,8</t>
+          <t>5,74; 12,0</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 30,11</t>
+          <t>-21,32; 38,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,53; -22,72</t>
+          <t>-61,86; -23,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,08; 91,49</t>
+          <t>12,28; 90,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 108,77</t>
+          <t>5,1; 105,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,25; 24,05</t>
+          <t>-40,25; 25,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,16; 180,53</t>
+          <t>59,74; 185,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 43,22</t>
+          <t>-3,13; 45,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-49,31; -14,48</t>
+          <t>-47,78; -15,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,82; 101,53</t>
+          <t>41,76; 104,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,66</t>
+          <t>-4,22; 2,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,0; -0,37</t>
+          <t>-7,35; -0,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 1,36</t>
+          <t>-6,15; 1,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 4,19</t>
+          <t>-1,54; 4,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 3,43</t>
+          <t>-2,23; 3,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,27</t>
+          <t>0,7; 6,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,48</t>
+          <t>-1,89; 2,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 0,71</t>
+          <t>-3,68; 0,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,06</t>
+          <t>-1,59; 3,18</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 17,76</t>
+          <t>-22,74; 17,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,35; -2,41</t>
+          <t>-39,92; -2,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,83; 9,16</t>
+          <t>-33,28; 12,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 39,59</t>
+          <t>-12,32; 40,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 34,64</t>
+          <t>-17,85; 33,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,1; 62,03</t>
+          <t>4,96; 62,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 19,77</t>
+          <t>-12,47; 20,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 5,29</t>
+          <t>-24,38; 4,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 23,5</t>
+          <t>-10,74; 24,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 7,36</t>
+          <t>-0,33; 7,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 5,04</t>
+          <t>-3,05; 5,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 9,03</t>
+          <t>-0,14; 9,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 3,27</t>
+          <t>-4,17; 3,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 7,12</t>
+          <t>-0,49; 7,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 0,74</t>
+          <t>-7,25; 1,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,32</t>
+          <t>-0,93; 4,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,01</t>
+          <t>-0,72; 5,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 3,65</t>
+          <t>-3,13; 3,71</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 59,07</t>
+          <t>-2,72; 61,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 41,08</t>
+          <t>-17,89; 41,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 68,34</t>
+          <t>-1,49; 73,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 26,29</t>
+          <t>-25,85; 27,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 56,9</t>
+          <t>-2,72; 60,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 5,06</t>
+          <t>-45,38; 8,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 32,3</t>
+          <t>-6,13; 32,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 37,65</t>
+          <t>-4,43; 38,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 26,47</t>
+          <t>-20,1; 26,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,4; 7,14</t>
+          <t>0,87; 7,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 4,67</t>
+          <t>-1,91; 4,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,87</t>
+          <t>-3,82; 3,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,55</t>
+          <t>-3,41; 2,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,7</t>
+          <t>-1,34; 5,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,54; -0,89</t>
+          <t>-6,78; -1,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,08</t>
+          <t>-0,61; 4,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,88</t>
+          <t>-0,69; 3,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,34; -0,3</t>
+          <t>-4,43; -0,12</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,26; 51,91</t>
+          <t>5,09; 53,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 33,46</t>
+          <t>-11,89; 33,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 21,22</t>
+          <t>-23,52; 23,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 21,06</t>
+          <t>-22,42; 22,27</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 37,83</t>
+          <t>-8,39; 42,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,82; -7,1</t>
+          <t>-43,87; -8,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 31,45</t>
+          <t>-4,12; 30,62</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 29,9</t>
+          <t>-4,49; 26,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-28,17; -2,37</t>
+          <t>-28,53; -0,68</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,68</t>
+          <t>0,05; 3,61</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,15; -0,58</t>
+          <t>-4,09; -0,47</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,15</t>
+          <t>-0,93; 3,23</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 2,78</t>
+          <t>-0,43; 2,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,72</t>
+          <t>-0,56; 2,63</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,28</t>
+          <t>-0,81; 2,44</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,71</t>
+          <t>0,19; 2,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,65</t>
+          <t>-1,72; 0,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,18</t>
+          <t>-0,47; 2,2</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,77; 24,25</t>
+          <t>0,29; 24,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-25,06; -4,13</t>
+          <t>-24,28; -3,17</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 21,37</t>
+          <t>-5,56; 21,43</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 23,41</t>
+          <t>-3,31; 21,82</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 23,34</t>
+          <t>-4,13; 22,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 19,36</t>
+          <t>-6,31; 21,26</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,36; 20,24</t>
+          <t>1,27; 19,59</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 4,86</t>
+          <t>-11,87; 4,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 16,14</t>
+          <t>-3,21; 16,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,01</t>
+          <t>-8,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-9,18</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>6,32</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 18,45</t>
+          <t>-2,98; 5,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,01; -5,12</t>
+          <t>-11,92; -4,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 6,79</t>
+          <t>0,76; 10,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 14,3</t>
+          <t>0,88; 7,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 0,36</t>
+          <t>-4,81; 1,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 4,43</t>
+          <t>4,36; 10,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 13,23</t>
+          <t>0,18; 5,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,21; -4,15</t>
+          <t>-7,29; -2,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 2,61</t>
+          <t>3,24; 9,37</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-75,15%</t>
+          <t>-50,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-22,47%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,23%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-48,94%</t>
+          <t>-18,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,8%</t>
+          <t>79,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,28%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-65,24%</t>
+          <t>-39,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-23,79%</t>
+          <t>48,87%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 162,21</t>
+          <t>-16,11; 38,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-92,99; -35,61</t>
+          <t>-63,89; -31,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,73; 69,21</t>
+          <t>3,9; 74,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,55; 198,95</t>
+          <t>8,28; 96,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-81,75; 13,65</t>
+          <t>-44,36; 14,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-62,69; 71,9</t>
+          <t>37,19; 137,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 124,16</t>
+          <t>1,35; 46,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-82,5; -30,6</t>
+          <t>-51,55; -24,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-54,02; 30,77</t>
+          <t>22,38; 78,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>-1,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 5,2</t>
+          <t>-4,22; 2,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,23; -3,37</t>
+          <t>-7,35; -0,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 12,9</t>
+          <t>-11,67; -0,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 7,67</t>
+          <t>-1,54; 4,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 1,87</t>
+          <t>-2,23; 3,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 13,87</t>
+          <t>0,43; 5,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 5,37</t>
+          <t>-1,89; 2,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,53; -1,8</t>
+          <t>-3,68; 0,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 12,0</t>
+          <t>-5,65; 1,66</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-45,46%</t>
+          <t>-21,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,44%</t>
+          <t>-30,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,7%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>109,02%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-33,3%</t>
+          <t>-10,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>68,26%</t>
+          <t>-7,93%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 38,28</t>
+          <t>-22,74; 17,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,86; -23,71</t>
+          <t>-39,92; -2,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 90,65</t>
+          <t>-65,07; -4,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 105,64</t>
+          <t>-12,32; 40,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,25; 25,04</t>
+          <t>-17,85; 33,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,74; 185,44</t>
+          <t>2,9; 59,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 45,36</t>
+          <t>-12,47; 20,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,78; -15,81</t>
+          <t>-24,38; 4,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>41,76; 104,21</t>
+          <t>-36,8; 12,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-1,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,57</t>
+          <t>-0,33; 7,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,35; -0,28</t>
+          <t>-3,05; 5,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 1,84</t>
+          <t>-0,64; 8,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,21</t>
+          <t>-4,17; 3,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 3,4</t>
+          <t>-0,49; 7,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,29</t>
+          <t>-10,03; -0,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,54</t>
+          <t>-0,93; 4,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,54</t>
+          <t>-0,72; 5,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,18</t>
+          <t>-5,83; 2,4</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-21,81%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,89%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>-31,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-10,9%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>-7,4%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 17,23</t>
+          <t>-2,72; 61,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,92; -2,08</t>
+          <t>-17,89; 41,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,28; 12,36</t>
+          <t>-3,98; 69,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 40,21</t>
+          <t>-25,85; 27,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 33,23</t>
+          <t>-2,72; 60,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,96; 62,82</t>
+          <t>-64,38; -2,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 20,0</t>
+          <t>-6,13; 32,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 4,16</t>
+          <t>-4,43; 38,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 24,11</t>
+          <t>-37,79; 17,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-2,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 7,57</t>
+          <t>0,87; 7,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 5,0</t>
+          <t>-1,91; 4,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 9,27</t>
+          <t>-4,32; 2,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,42</t>
+          <t>-3,41; 2,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 7,46</t>
+          <t>-1,34; 5,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 1,12</t>
+          <t>-7,78; -1,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,4</t>
+          <t>-0,61; 4,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,07</t>
+          <t>-0,69; 3,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 3,71</t>
+          <t>-5,2; -0,6</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>-7,1%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,05%</t>
+          <t>-32,69%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>-20,53%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 61,06</t>
+          <t>5,09; 53,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 41,22</t>
+          <t>-11,89; 33,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 73,59</t>
+          <t>-26,71; 20,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 27,39</t>
+          <t>-22,42; 22,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 60,41</t>
+          <t>-8,39; 42,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,38; 8,66</t>
+          <t>-50,59; -13,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 32,11</t>
+          <t>-4,12; 30,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 38,98</t>
+          <t>-4,49; 26,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 26,89</t>
+          <t>-33,75; -4,86</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-0,23</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,25</t>
+          <t>0,05; 3,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 4,57</t>
+          <t>-4,09; -0,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,19</t>
+          <t>-4,22; 1,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,78</t>
+          <t>-0,43; 2,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,12</t>
+          <t>-0,56; 2,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,78; -1,1</t>
+          <t>-2,38; 1,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 4,04</t>
+          <t>0,19; 2,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,67</t>
+          <t>-1,72; 0,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; -0,12</t>
+          <t>-2,16; 1,23</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>-14,27%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-3,21%</t>
+          <t>-1,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-2,33%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-28,17%</t>
+          <t>-0,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>-3,73%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-16,39%</t>
+          <t>-1,62%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>5,09; 53,83</t>
+          <t>0,29; 24,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 33,44</t>
+          <t>-24,28; -3,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,52; 23,56</t>
+          <t>-26,05; 12,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 22,27</t>
+          <t>-3,31; 21,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 42,14</t>
+          <t>-4,13; 22,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,87; -8,86</t>
+          <t>-18,25; 13,84</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 30,62</t>
+          <t>1,27; 19,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 26,8</t>
+          <t>-11,87; 4,95</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-28,53; -0,68</t>
+          <t>-14,55; 8,96</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-2,24</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 3,61</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; -0,47</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,93; 3,23</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,43; 2,6</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 2,63</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 2,44</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 2,64</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; 0,65</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 2,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>11,98%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-14,27%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>7,95%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>8,4%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>9,2%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>10,34%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-3,73%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>6,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 24,16</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-24,28; -3,17</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-5,56; 21,43</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 21,82</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 22,1</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 21,26</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 19,59</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-11,87; 4,95</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 16,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P45C_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 5,52</t>
+          <t>-2,81; 5,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,92; -4,71</t>
+          <t>-12,08; -4,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 10,88</t>
+          <t>0,49; 10,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,64</t>
+          <t>0,84; 7,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,05</t>
+          <t>-4,77; 1,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 10,84</t>
+          <t>4,42; 10,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 5,4</t>
+          <t>0,03; 5,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; -2,8</t>
+          <t>-7,51; -2,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,37</t>
+          <t>3,54; 9,33</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 38,21</t>
+          <t>-16,07; 37,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-63,89; -31,61</t>
+          <t>-64,52; -32,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 74,34</t>
+          <t>1,58; 71,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 96,23</t>
+          <t>7,49; 98,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 14,06</t>
+          <t>-42,62; 14,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,19; 137,12</t>
+          <t>40,72; 139,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 46,12</t>
+          <t>-0,55; 44,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,55; -24,04</t>
+          <t>-51,7; -24,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,38; 78,66</t>
+          <t>24,73; 78,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,57</t>
+          <t>-4,31; 2,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,35; -0,28</t>
+          <t>-7,17; -0,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -0,73</t>
+          <t>-12,33; -0,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,21</t>
+          <t>-1,8; 4,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 3,4</t>
+          <t>-2,31; 3,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 5,99</t>
+          <t>0,38; 6,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,54</t>
+          <t>-2,0; 2,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,54</t>
+          <t>-4,02; 0,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 1,66</t>
+          <t>-5,62; 1,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 17,23</t>
+          <t>-23,0; 16,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,92; -2,08</t>
+          <t>-38,52; -1,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,07; -4,83</t>
+          <t>-67,51; -5,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 40,21</t>
+          <t>-13,42; 41,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 33,23</t>
+          <t>-17,5; 34,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 59,43</t>
+          <t>2,23; 59,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 20,0</t>
+          <t>-12,97; 19,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 4,16</t>
+          <t>-25,75; 5,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-36,8; 12,35</t>
+          <t>-36,5; 10,56</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 7,57</t>
+          <t>-0,43; 7,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 5,0</t>
+          <t>-3,03; 5,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 8,6</t>
+          <t>-0,98; 7,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,42</t>
+          <t>-3,65; 3,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 7,46</t>
+          <t>-0,29; 7,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,03; -0,3</t>
+          <t>-11,78; -0,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,4</t>
+          <t>-1,11; 4,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,07</t>
+          <t>-0,46; 4,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 2,4</t>
+          <t>-5,78; 2,3</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 61,06</t>
+          <t>-2,98; 58,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 41,22</t>
+          <t>-18,08; 40,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 69,99</t>
+          <t>-6,2; 59,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 27,39</t>
+          <t>-23,01; 28,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 60,41</t>
+          <t>-1,86; 61,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,38; -2,58</t>
+          <t>-69,0; -3,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 32,11</t>
+          <t>-6,88; 31,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 38,98</t>
+          <t>-3,02; 37,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 17,79</t>
+          <t>-38,53; 16,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,25</t>
+          <t>0,57; 7,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 4,57</t>
+          <t>-1,94; 4,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,64</t>
+          <t>-4,33; 2,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,78</t>
+          <t>-3,33; 2,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,12</t>
+          <t>-1,54; 4,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,78; -1,7</t>
+          <t>-7,52; -1,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 4,04</t>
+          <t>-0,65; 3,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,67</t>
+          <t>-0,87; 3,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,2; -0,6</t>
+          <t>-5,36; -0,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,09; 53,83</t>
+          <t>3,44; 54,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 33,44</t>
+          <t>-11,45; 36,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 20,17</t>
+          <t>-26,03; 18,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 22,27</t>
+          <t>-22,08; 20,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 42,14</t>
+          <t>-9,98; 38,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,59; -13,94</t>
+          <t>-49,62; -11,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 30,62</t>
+          <t>-4,36; 28,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 26,8</t>
+          <t>-5,64; 28,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,75; -4,86</t>
+          <t>-34,66; -5,97</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,05; 3,61</t>
+          <t>0,08; 3,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,09; -0,47</t>
+          <t>-4,09; -0,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,87</t>
+          <t>-3,58; 2,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,6</t>
+          <t>-0,59; 2,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,63</t>
+          <t>-0,36; 2,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,67</t>
+          <t>-2,71; 1,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,64</t>
+          <t>0,2; 2,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,65</t>
+          <t>-1,79; 0,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,23</t>
+          <t>-2,22; 1,24</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,29; 24,16</t>
+          <t>0,47; 25,95</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,28; -3,17</t>
+          <t>-24,69; -2,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 12,01</t>
+          <t>-21,6; 13,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 21,82</t>
+          <t>-4,36; 23,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 22,1</t>
+          <t>-2,83; 23,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 13,84</t>
+          <t>-20,04; 13,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,27; 19,59</t>
+          <t>1,31; 19,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 4,95</t>
+          <t>-12,3; 5,63</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 8,96</t>
+          <t>-15,5; 9,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Habitat-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
